--- a/539_calcu/prize8_1.xlsx
+++ b/539_calcu/prize8_1.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B3D1160&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A787BDE20&gt;</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -630,7 +630,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35AEBEFD0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A787BDD00&gt;</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -690,7 +690,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B626E80&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A787BDF40&gt;</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -750,7 +750,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B626CD0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A787BDE50&gt;</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -810,7 +810,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B5FE490&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A787BDDC0&gt;</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -870,7 +870,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B5FEA60&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A787BDEB0&gt;</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -930,7 +930,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B5FEB80&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A787BDB50&gt;</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -990,7 +990,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B5FEC40&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A787BDD90&gt;</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748100&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A787BDBB0&gt;</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748070&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A787BDC70&gt;</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7480D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA100&gt;</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1225,22 +1225,22 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['01', '05'], ['01', '07'], ['01', '11'], ['01', '15'], ['01', '16'], ['01', '19'], ['01', '20'], ['05', '07'], ['05', '11'], ['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['07', '11'], ['07', '15'], ['07', '16'], ['07', '19'], ['07', '20'], ['11', '15'], ['11', '16'], ['11', '19'], ['11', '20'], ['15', '16'], ['15', '19'], ['15', '20'], ['16', '19'], ['16', '20'], ['19', '20']]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748040&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA070&gt;</t>
         </is>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
@@ -1285,22 +1285,22 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['01', '05'], ['01', '07'], ['01', '11'], ['01', '15'], ['01', '16'], ['01', '19'], ['01', '20'], ['05', '07'], ['05', '11'], ['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['07', '11'], ['07', '15'], ['07', '16'], ['07', '19'], ['07', '20'], ['11', '15'], ['11', '16'], ['11', '19'], ['11', '20'], ['15', '16'], ['15', '19'], ['15', '20'], ['16', '19'], ['16', '20'], ['19', '20']]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748190&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA0D0&gt;</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
@@ -1345,22 +1345,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['01', '05'], ['01', '15'], ['01', '16'], ['01', '19'], ['01', '20'], ['01', '21'], ['01', '24'], ['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['05', '21'], ['05', '24'], ['15', '16'], ['15', '19'], ['15', '20'], ['15', '21'], ['15', '24'], ['16', '19'], ['16', '20'], ['16', '21'], ['16', '24'], ['19', '20'], ['19', '21'], ['19', '24'], ['20', '21'], ['20', '24'], ['21', '24']]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7481F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA040&gt;</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1405,22 +1405,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['01', '05'], ['01', '15'], ['01', '16'], ['01', '19'], ['01', '20'], ['01', '21'], ['01', '24'], ['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['05', '21'], ['05', '24'], ['15', '16'], ['15', '19'], ['15', '20'], ['15', '21'], ['15', '24'], ['16', '19'], ['16', '20'], ['16', '21'], ['16', '24'], ['19', '20'], ['19', '21'], ['19', '24'], ['20', '21'], ['20', '24'], ['21', '24']]</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748250&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA190&gt;</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -1465,22 +1465,22 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['01', '05'], ['01', '15'], ['01', '16'], ['01', '19'], ['01', '20'], ['01', '21'], ['01', '24'], ['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['05', '21'], ['05', '24'], ['15', '16'], ['15', '19'], ['15', '20'], ['15', '21'], ['15', '24'], ['16', '19'], ['16', '20'], ['16', '21'], ['16', '24'], ['19', '20'], ['19', '21'], ['19', '24'], ['20', '21'], ['20', '24'], ['21', '24']]</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7482B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA1F0&gt;</t>
         </is>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -1525,22 +1525,22 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['05', '15'], ['05', '16'], ['05', '19'], ['05', '20'], ['05', '21'], ['05', '24'], ['05', '27'], ['15', '16'], ['15', '19'], ['15', '20'], ['15', '21'], ['15', '24'], ['15', '27'], ['16', '19'], ['16', '20'], ['16', '21'], ['16', '24'], ['16', '27'], ['19', '20'], ['19', '21'], ['19', '24'], ['19', '27'], ['20', '21'], ['20', '24'], ['20', '27'], ['21', '24'], ['21', '27'], ['24', '27']]</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748310&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA250&gt;</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['16', '20'], ['16', '21'], ['16', '24'], ['16', '27'], ['16', '32'], ['16', '33'], ['16', '01'], ['20', '21'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['20', '01'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['21', '01'], ['24', '27'], ['24', '32'], ['24', '33'], ['24', '01'], ['27', '32'], ['27', '33'], ['27', '01'], ['32', '33'], ['32', '01'], ['33', '01']]</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748370&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA2B0&gt;</t>
         </is>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
@@ -1645,22 +1645,22 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['16', '20'], ['16', '21'], ['16', '24'], ['16', '27'], ['16', '32'], ['16', '33'], ['16', '01'], ['20', '21'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['20', '01'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['21', '01'], ['24', '27'], ['24', '32'], ['24', '33'], ['24', '01'], ['27', '32'], ['27', '33'], ['27', '01'], ['32', '33'], ['32', '01'], ['33', '01']]</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7483D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA310&gt;</t>
         </is>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
@@ -1705,22 +1705,22 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['16', '20'], ['16', '21'], ['16', '24'], ['16', '27'], ['16', '32'], ['16', '33'], ['16', '01'], ['20', '21'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['20', '01'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['21', '01'], ['24', '27'], ['24', '32'], ['24', '33'], ['24', '01'], ['27', '32'], ['27', '33'], ['27', '01'], ['32', '33'], ['32', '01'], ['33', '01']]</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748430&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA370&gt;</t>
         </is>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
@@ -1765,22 +1765,22 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['20', '01'], ['20', '02'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['21', '01'], ['21', '02'], ['24', '27'], ['24', '32'], ['24', '33'], ['24', '01'], ['24', '02'], ['27', '32'], ['27', '33'], ['27', '01'], ['27', '02'], ['32', '33'], ['32', '01'], ['32', '02'], ['33', '01'], ['33', '02'], ['01', '02']]</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748490&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA3D0&gt;</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
@@ -1825,22 +1825,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['21', '02'], ['21', '07'], ['21', '09'], ['24', '27'], ['24', '32'], ['24', '33'], ['24', '02'], ['24', '07'], ['24', '09'], ['27', '32'], ['27', '33'], ['27', '02'], ['27', '07'], ['27', '09'], ['32', '33'], ['32', '02'], ['32', '07'], ['32', '09'], ['33', '02'], ['33', '07'], ['33', '09'], ['02', '07'], ['02', '09'], ['07', '09']]</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7484F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA430&gt;</t>
         </is>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
@@ -1885,22 +1885,22 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '24'], ['21', '27'], ['21', '32'], ['21', '02'], ['21', '07'], ['21', '09'], ['21', '11'], ['24', '27'], ['24', '32'], ['24', '02'], ['24', '07'], ['24', '09'], ['24', '11'], ['27', '32'], ['27', '02'], ['27', '07'], ['27', '09'], ['27', '11'], ['32', '02'], ['32', '07'], ['32', '09'], ['32', '11'], ['02', '07'], ['02', '09'], ['02', '11'], ['07', '09'], ['07', '11'], ['09', '11']]</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748550&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA490&gt;</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
@@ -1945,22 +1945,22 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '32'], ['21', '07'], ['21', '09'], ['21', '11'], ['21', '17'], ['21', '20'], ['21', '24'], ['32', '07'], ['32', '09'], ['32', '11'], ['32', '17'], ['32', '20'], ['32', '24'], ['07', '09'], ['07', '11'], ['07', '17'], ['07', '20'], ['07', '24'], ['09', '11'], ['09', '17'], ['09', '20'], ['09', '24'], ['11', '17'], ['11', '20'], ['11', '24'], ['17', '20'], ['17', '24'], ['20', '24']]</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7485B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA4F0&gt;</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -2005,22 +2005,22 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '07'], ['21', '11'], ['21', '17'], ['21', '20'], ['21', '24'], ['21', '27'], ['21', '32'], ['07', '11'], ['07', '17'], ['07', '20'], ['07', '24'], ['07', '27'], ['07', '32'], ['11', '17'], ['11', '20'], ['11', '24'], ['11', '27'], ['11', '32'], ['17', '20'], ['17', '24'], ['17', '27'], ['17', '32'], ['20', '24'], ['20', '27'], ['20', '32'], ['24', '27'], ['24', '32'], ['27', '32']]</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748610&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA550&gt;</t>
         </is>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
@@ -2065,22 +2065,22 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '07'], ['21', '11'], ['21', '20'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['07', '11'], ['07', '20'], ['07', '24'], ['07', '27'], ['07', '32'], ['07', '33'], ['11', '20'], ['11', '24'], ['11', '27'], ['11', '32'], ['11', '33'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['24', '27'], ['24', '32'], ['24', '33'], ['27', '32'], ['27', '33'], ['32', '33']]</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748670&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA5B0&gt;</t>
         </is>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2125,22 +2125,22 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '07'], ['21', '11'], ['21', '20'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['07', '11'], ['07', '20'], ['07', '24'], ['07', '27'], ['07', '32'], ['07', '33'], ['11', '20'], ['11', '24'], ['11', '27'], ['11', '32'], ['11', '33'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['24', '27'], ['24', '32'], ['24', '33'], ['27', '32'], ['27', '33'], ['32', '33']]</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7486D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA610&gt;</t>
         </is>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2185,22 +2185,22 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '07'], ['21', '11'], ['21', '20'], ['21', '24'], ['21', '27'], ['21', '32'], ['21', '33'], ['07', '11'], ['07', '20'], ['07', '24'], ['07', '27'], ['07', '32'], ['07', '33'], ['11', '20'], ['11', '24'], ['11', '27'], ['11', '32'], ['11', '33'], ['20', '24'], ['20', '27'], ['20', '32'], ['20', '33'], ['24', '27'], ['24', '32'], ['24', '33'], ['27', '32'], ['27', '33'], ['32', '33']]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748730&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA670&gt;</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2245,22 +2245,22 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '07'], ['21', '20'], ['21', '24'], ['21', '32'], ['21', '33'], ['21', '37'], ['21', '01'], ['07', '20'], ['07', '24'], ['07', '32'], ['07', '33'], ['07', '37'], ['07', '01'], ['20', '24'], ['20', '32'], ['20', '33'], ['20', '37'], ['20', '01'], ['24', '32'], ['24', '33'], ['24', '37'], ['24', '01'], ['32', '33'], ['32', '37'], ['32', '01'], ['33', '37'], ['33', '01'], ['37', '01']]</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748790&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA6D0&gt;</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
@@ -2305,22 +2305,22 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '24'], ['20', '32'], ['20', '33'], ['20', '37'], ['20', '05'], ['20', '07'], ['21', '24'], ['21', '32'], ['21', '33'], ['21', '37'], ['21', '05'], ['21', '07'], ['24', '32'], ['24', '33'], ['24', '37'], ['24', '05'], ['24', '07'], ['32', '33'], ['32', '37'], ['32', '05'], ['32', '07'], ['33', '37'], ['33', '05'], ['33', '07'], ['37', '05'], ['37', '07'], ['05', '07']]</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7487F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA730&gt;</t>
         </is>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
@@ -2365,22 +2365,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '32'], ['20', '33'], ['20', '37'], ['20', '05'], ['20', '07'], ['20', '09'], ['21', '32'], ['21', '33'], ['21', '37'], ['21', '05'], ['21', '07'], ['21', '09'], ['32', '33'], ['32', '37'], ['32', '05'], ['32', '07'], ['32', '09'], ['33', '37'], ['33', '05'], ['33', '07'], ['33', '09'], ['37', '05'], ['37', '07'], ['37', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748850&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA790&gt;</t>
         </is>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
@@ -2425,22 +2425,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '32'], ['20', '33'], ['20', '37'], ['20', '05'], ['20', '07'], ['20', '09'], ['21', '32'], ['21', '33'], ['21', '37'], ['21', '05'], ['21', '07'], ['21', '09'], ['32', '33'], ['32', '37'], ['32', '05'], ['32', '07'], ['32', '09'], ['33', '37'], ['33', '05'], ['33', '07'], ['33', '09'], ['37', '05'], ['37', '07'], ['37', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7488B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA7F0&gt;</t>
         </is>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
@@ -2485,22 +2485,22 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '32'], ['20', '33'], ['20', '37'], ['20', '05'], ['20', '07'], ['20', '09'], ['21', '32'], ['21', '33'], ['21', '37'], ['21', '05'], ['21', '07'], ['21', '09'], ['32', '33'], ['32', '37'], ['32', '05'], ['32', '07'], ['32', '09'], ['33', '37'], ['33', '05'], ['33', '07'], ['33', '09'], ['37', '05'], ['37', '07'], ['37', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748910&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA850&gt;</t>
         </is>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
@@ -2545,22 +2545,22 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '32'], ['20', '33'], ['20', '05'], ['20', '07'], ['20', '09'], ['20', '11'], ['21', '32'], ['21', '33'], ['21', '05'], ['21', '07'], ['21', '09'], ['21', '11'], ['32', '33'], ['32', '05'], ['32', '07'], ['32', '09'], ['32', '11'], ['33', '05'], ['33', '07'], ['33', '09'], ['33', '11'], ['05', '07'], ['05', '09'], ['05', '11'], ['07', '09'], ['07', '11'], ['09', '11']]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748970&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA8B0&gt;</t>
         </is>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
@@ -2605,22 +2605,22 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '05'], ['20', '07'], ['20', '09'], ['20', '11'], ['20', '24'], ['21', '33'], ['21', '05'], ['21', '07'], ['21', '09'], ['21', '11'], ['21', '24'], ['33', '05'], ['33', '07'], ['33', '09'], ['33', '11'], ['33', '24'], ['05', '07'], ['05', '09'], ['05', '11'], ['05', '24'], ['07', '09'], ['07', '11'], ['07', '24'], ['09', '11'], ['09', '24'], ['11', '24']]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7489D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA910&gt;</t>
         </is>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -2665,22 +2665,22 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '05'], ['20', '07'], ['20', '09'], ['20', '11'], ['20', '24'], ['21', '33'], ['21', '05'], ['21', '07'], ['21', '09'], ['21', '11'], ['21', '24'], ['33', '05'], ['33', '07'], ['33', '09'], ['33', '11'], ['33', '24'], ['05', '07'], ['05', '09'], ['05', '11'], ['05', '24'], ['07', '09'], ['07', '11'], ['07', '24'], ['09', '11'], ['09', '24'], ['11', '24']]</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748A30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA970&gt;</t>
         </is>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2725,22 +2725,22 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '05'], ['20', '09'], ['20', '11'], ['20', '24'], ['20', '32'], ['21', '33'], ['21', '05'], ['21', '09'], ['21', '11'], ['21', '24'], ['21', '32'], ['33', '05'], ['33', '09'], ['33', '11'], ['33', '24'], ['33', '32'], ['05', '09'], ['05', '11'], ['05', '24'], ['05', '32'], ['09', '11'], ['09', '24'], ['09', '32'], ['11', '24'], ['11', '32'], ['24', '32']]</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748A90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA9D0&gt;</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
@@ -2785,22 +2785,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '09'], ['20', '11'], ['20', '24'], ['20', '32'], ['20', '37'], ['21', '33'], ['21', '09'], ['21', '11'], ['21', '24'], ['21', '32'], ['21', '37'], ['33', '09'], ['33', '11'], ['33', '24'], ['33', '32'], ['33', '37'], ['09', '11'], ['09', '24'], ['09', '32'], ['09', '37'], ['11', '24'], ['11', '32'], ['11', '37'], ['24', '32'], ['24', '37'], ['32', '37']]</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748AF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EAA30&gt;</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
@@ -2845,22 +2845,22 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '11'], ['20', '24'], ['20', '32'], ['20', '02'], ['20', '05'], ['21', '33'], ['21', '11'], ['21', '24'], ['21', '32'], ['21', '02'], ['21', '05'], ['33', '11'], ['33', '24'], ['33', '32'], ['33', '02'], ['33', '05'], ['11', '24'], ['11', '32'], ['11', '02'], ['11', '05'], ['24', '32'], ['24', '02'], ['24', '05'], ['32', '02'], ['32', '05'], ['02', '05']]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748B50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EAA90&gt;</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
@@ -2905,22 +2905,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '11'], ['20', '02'], ['20', '05'], ['20', '07'], ['20', '09'], ['21', '33'], ['21', '11'], ['21', '02'], ['21', '05'], ['21', '07'], ['21', '09'], ['33', '11'], ['33', '02'], ['33', '05'], ['33', '07'], ['33', '09'], ['11', '02'], ['11', '05'], ['11', '07'], ['11', '09'], ['02', '05'], ['02', '07'], ['02', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748BB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EAAF0&gt;</t>
         </is>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '11'], ['20', '02'], ['20', '07'], ['20', '09'], ['20', '10'], ['21', '33'], ['21', '11'], ['21', '02'], ['21', '07'], ['21', '09'], ['21', '10'], ['33', '11'], ['33', '02'], ['33', '07'], ['33', '09'], ['33', '10'], ['11', '02'], ['11', '07'], ['11', '09'], ['11', '10'], ['02', '07'], ['02', '09'], ['02', '10'], ['07', '09'], ['07', '10'], ['09', '10']]</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748C10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EAB50&gt;</t>
         </is>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
@@ -3025,22 +3025,22 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '11'], ['20', '02'], ['20', '07'], ['20', '10'], ['20', '24'], ['21', '33'], ['21', '11'], ['21', '02'], ['21', '07'], ['21', '10'], ['21', '24'], ['33', '11'], ['33', '02'], ['33', '07'], ['33', '10'], ['33', '24'], ['11', '02'], ['11', '07'], ['11', '10'], ['11', '24'], ['02', '07'], ['02', '10'], ['02', '24'], ['07', '10'], ['07', '24'], ['10', '24']]</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748C70&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EABB0&gt;</t>
         </is>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
@@ -3085,22 +3085,22 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '11'], ['21', '20'], ['21', '02'], ['21', '07'], ['21', '10'], ['21', '24'], ['33', '11'], ['33', '20'], ['33', '02'], ['33', '07'], ['33', '10'], ['33', '24'], ['11', '20'], ['11', '02'], ['11', '07'], ['11', '10'], ['11', '24'], ['20', '02'], ['20', '07'], ['20', '10'], ['20', '24'], ['02', '07'], ['02', '10'], ['02', '24'], ['07', '10'], ['07', '24'], ['10', '24']]</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748CD0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EAC10&gt;</t>
         </is>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
@@ -3145,22 +3145,22 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '11'], ['21', '20'], ['21', '02'], ['21', '07'], ['21', '10'], ['21', '01'], ['33', '11'], ['33', '20'], ['33', '02'], ['33', '07'], ['33', '10'], ['33', '01'], ['11', '20'], ['11', '02'], ['11', '07'], ['11', '10'], ['11', '01'], ['20', '02'], ['20', '07'], ['20', '10'], ['20', '01'], ['02', '07'], ['02', '10'], ['02', '01'], ['07', '10'], ['07', '01'], ['10', '01']]</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748D30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EAC70&gt;</t>
         </is>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
@@ -3205,22 +3205,22 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '11'], ['21', '20'], ['21', '07'], ['21', '10'], ['21', '01'], ['21', '02'], ['33', '11'], ['33', '20'], ['33', '07'], ['33', '10'], ['33', '01'], ['33', '02'], ['11', '20'], ['11', '07'], ['11', '10'], ['11', '01'], ['11', '02'], ['20', '07'], ['20', '10'], ['20', '01'], ['20', '02'], ['07', '10'], ['07', '01'], ['07', '02'], ['10', '01'], ['10', '02'], ['01', '02']]</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748D90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EACD0&gt;</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
@@ -3265,22 +3265,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '20'], ['21', '07'], ['21', '10'], ['21', '11'], ['21', '01'], ['21', '05'], ['33', '20'], ['33', '07'], ['33', '10'], ['33', '11'], ['33', '01'], ['33', '05'], ['20', '07'], ['20', '10'], ['20', '11'], ['20', '01'], ['20', '05'], ['07', '10'], ['07', '11'], ['07', '01'], ['07', '05'], ['10', '11'], ['10', '01'], ['10', '05'], ['11', '01'], ['11', '05'], ['01', '05']]</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748DF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EAD30&gt;</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
@@ -3325,22 +3325,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '20'], ['21', '10'], ['21', '01'], ['21', '05'], ['21', '07'], ['21', '09'], ['33', '20'], ['33', '10'], ['33', '01'], ['33', '05'], ['33', '07'], ['33', '09'], ['20', '10'], ['20', '01'], ['20', '05'], ['20', '07'], ['20', '09'], ['10', '01'], ['10', '05'], ['10', '07'], ['10', '09'], ['01', '05'], ['01', '07'], ['01', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748E50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EAD90&gt;</t>
         </is>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
@@ -3385,22 +3385,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '20'], ['21', '10'], ['21', '01'], ['21', '05'], ['21', '07'], ['21', '09'], ['33', '20'], ['33', '10'], ['33', '01'], ['33', '05'], ['33', '07'], ['33', '09'], ['20', '10'], ['20', '01'], ['20', '05'], ['20', '07'], ['20', '09'], ['10', '01'], ['10', '05'], ['10', '07'], ['10', '09'], ['01', '05'], ['01', '07'], ['01', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748EB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EADF0&gt;</t>
         </is>
       </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
@@ -3445,22 +3445,22 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['21', '33'], ['21', '20'], ['21', '10'], ['21', '01'], ['21', '05'], ['21', '07'], ['21', '09'], ['33', '20'], ['33', '10'], ['33', '01'], ['33', '05'], ['33', '07'], ['33', '09'], ['20', '10'], ['20', '01'], ['20', '05'], ['20', '07'], ['20', '09'], ['10', '01'], ['10', '05'], ['10', '07'], ['10', '09'], ['01', '05'], ['01', '07'], ['01', '09'], ['05', '07'], ['05', '09'], ['07', '09']]</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B748F10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EAE50&gt;</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
@@ -3505,22 +3505,22 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '33'], ['20', '10'], ['20', '01'], ['20', '07'], ['20', '09'], ['20', '24'], ['21', '33'], ['21', '10'], ['21', '01'], ['21', '07'], ['21', '09'], ['21', '24'], ['33', '10'], ['33', '01'], ['33', '07'], ['33', '09'], ['33', '24'], ['10', '01'], ['10', '07'], ['10', '09'], ['10', '24'], ['01', '07'], ['01', '09'], ['01', '24'], ['07', '09'], ['07', '24'], ['09', '24']]</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7480A0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EAEB0&gt;</t>
         </is>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
@@ -3565,22 +3565,22 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[['20', '21'], ['20', '10'], ['20', '33'], ['20', '01'], ['20', '07'], ['20', '09'], ['20', '24'], ['21', '10'], ['21', '33'], ['21', '01'], ['21', '07'], ['21', '09'], ['21', '24'], ['10', '33'], ['10', '01'], ['10', '07'], ['10', '09'], ['10', '24'], ['33', '01'], ['33', '07'], ['33', '09'], ['33', '24'], ['01', '07'], ['01', '09'], ['01', '24'], ['07', '09'], ['07', '24'], ['09', '24']]</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F100&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EAF10&gt;</t>
         </is>
       </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F070&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EA0A0&gt;</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F0D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB070&gt;</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F040&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB160&gt;</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F190&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB100&gt;</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F1F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB0A0&gt;</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F250&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB190&gt;</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F2B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB1F0&gt;</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F310&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB250&gt;</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F370&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB2B0&gt;</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F3D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB310&gt;</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F430&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB370&gt;</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F490&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB3D0&gt;</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F4F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB430&gt;</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F550&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB490&gt;</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F5B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB4F0&gt;</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F610&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB550&gt;</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F670&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB5B0&gt;</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F6D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB610&gt;</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F730&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB670&gt;</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F790&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB6D0&gt;</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F7F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB730&gt;</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F850&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB790&gt;</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F8B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB7F0&gt;</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F910&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB850&gt;</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F970&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB8B0&gt;</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F9D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB910&gt;</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -5190,7 +5190,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75FA30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB970&gt;</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75FA90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB9D0&gt;</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75FAF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DBA30&gt;</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75FB50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DBA90&gt;</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75FBB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DBAF0&gt;</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75FC10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DBB50&gt;</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75FC70&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DBBB0&gt;</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75FCD0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DBC10&gt;</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75FD30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DBC70&gt;</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75FD90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DBCD0&gt;</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75FDF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DBD30&gt;</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75FE50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DBD90&gt;</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75FEB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DBDF0&gt;</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75FF10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DBE50&gt;</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B75F0A0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DBEB0&gt;</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776100&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DBF10&gt;</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776070&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DB130&gt;</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7760D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6070&gt;</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776040&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6160&gt;</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776190&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6100&gt;</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7761F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B60A0&gt;</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -6450,7 +6450,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776250&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6190&gt;</t>
         </is>
       </c>
       <c r="J102" t="n">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7762B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B61F0&gt;</t>
         </is>
       </c>
       <c r="J103" t="n">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776310&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6250&gt;</t>
         </is>
       </c>
       <c r="J104" t="n">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776370&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B62B0&gt;</t>
         </is>
       </c>
       <c r="J105" t="n">
@@ -6690,7 +6690,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7763D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6310&gt;</t>
         </is>
       </c>
       <c r="J106" t="n">
@@ -6750,7 +6750,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776430&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6370&gt;</t>
         </is>
       </c>
       <c r="J107" t="n">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776490&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B63D0&gt;</t>
         </is>
       </c>
       <c r="J108" t="n">
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7764F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6430&gt;</t>
         </is>
       </c>
       <c r="J109" t="n">
@@ -6930,7 +6930,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776550&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6490&gt;</t>
         </is>
       </c>
       <c r="J110" t="n">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7765B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B64F0&gt;</t>
         </is>
       </c>
       <c r="J111" t="n">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776610&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6550&gt;</t>
         </is>
       </c>
       <c r="J112" t="n">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776670&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B65B0&gt;</t>
         </is>
       </c>
       <c r="J113" t="n">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7766D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6610&gt;</t>
         </is>
       </c>
       <c r="J114" t="n">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776730&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6670&gt;</t>
         </is>
       </c>
       <c r="J115" t="n">
@@ -7290,7 +7290,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776790&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B66D0&gt;</t>
         </is>
       </c>
       <c r="J116" t="n">
@@ -7350,7 +7350,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7767F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6730&gt;</t>
         </is>
       </c>
       <c r="J117" t="n">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776850&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6790&gt;</t>
         </is>
       </c>
       <c r="J118" t="n">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7768B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B67F0&gt;</t>
         </is>
       </c>
       <c r="J119" t="n">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776910&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6850&gt;</t>
         </is>
       </c>
       <c r="J120" t="n">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776970&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B68B0&gt;</t>
         </is>
       </c>
       <c r="J121" t="n">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7769D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6910&gt;</t>
         </is>
       </c>
       <c r="J122" t="n">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776A30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6970&gt;</t>
         </is>
       </c>
       <c r="J123" t="n">
@@ -7770,7 +7770,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776A90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B69D0&gt;</t>
         </is>
       </c>
       <c r="J124" t="n">
@@ -7830,7 +7830,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776AF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6A30&gt;</t>
         </is>
       </c>
       <c r="J125" t="n">
@@ -7890,7 +7890,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776B50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6A90&gt;</t>
         </is>
       </c>
       <c r="J126" t="n">
@@ -7950,7 +7950,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776BB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6AF0&gt;</t>
         </is>
       </c>
       <c r="J127" t="n">
@@ -8010,7 +8010,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776C10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6B50&gt;</t>
         </is>
       </c>
       <c r="J128" t="n">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776C70&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6BB0&gt;</t>
         </is>
       </c>
       <c r="J129" t="n">
@@ -8130,7 +8130,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776CD0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6C10&gt;</t>
         </is>
       </c>
       <c r="J130" t="n">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776D30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6C70&gt;</t>
         </is>
       </c>
       <c r="J131" t="n">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776D90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6CD0&gt;</t>
         </is>
       </c>
       <c r="J132" t="n">
@@ -8310,7 +8310,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776DF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6D30&gt;</t>
         </is>
       </c>
       <c r="J133" t="n">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776E50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6D90&gt;</t>
         </is>
       </c>
       <c r="J134" t="n">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776EB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6DF0&gt;</t>
         </is>
       </c>
       <c r="J135" t="n">
@@ -8490,7 +8490,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B776F10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6E50&gt;</t>
         </is>
       </c>
       <c r="J136" t="n">
@@ -8550,7 +8550,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7760A0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6EB0&gt;</t>
         </is>
       </c>
       <c r="J137" t="n">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767100&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6F10&gt;</t>
         </is>
       </c>
       <c r="J138" t="n">
@@ -8670,7 +8670,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767070&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B6130&gt;</t>
         </is>
       </c>
       <c r="J139" t="n">
@@ -8730,7 +8730,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7670D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3070&gt;</t>
         </is>
       </c>
       <c r="J140" t="n">
@@ -8790,7 +8790,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767040&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3160&gt;</t>
         </is>
       </c>
       <c r="J141" t="n">
@@ -8850,7 +8850,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767190&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3100&gt;</t>
         </is>
       </c>
       <c r="J142" t="n">
@@ -8910,7 +8910,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7671F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E30A0&gt;</t>
         </is>
       </c>
       <c r="J143" t="n">
@@ -8970,7 +8970,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767250&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3190&gt;</t>
         </is>
       </c>
       <c r="J144" t="n">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7672B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E31F0&gt;</t>
         </is>
       </c>
       <c r="J145" t="n">
@@ -9090,7 +9090,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767310&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3250&gt;</t>
         </is>
       </c>
       <c r="J146" t="n">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767370&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E32B0&gt;</t>
         </is>
       </c>
       <c r="J147" t="n">
@@ -9210,7 +9210,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7673D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3310&gt;</t>
         </is>
       </c>
       <c r="J148" t="n">
@@ -9270,7 +9270,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767430&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3370&gt;</t>
         </is>
       </c>
       <c r="J149" t="n">
@@ -9330,7 +9330,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767490&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E33D0&gt;</t>
         </is>
       </c>
       <c r="J150" t="n">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7674F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3430&gt;</t>
         </is>
       </c>
       <c r="J151" t="n">
@@ -9450,7 +9450,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767550&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3490&gt;</t>
         </is>
       </c>
       <c r="J152" t="n">
@@ -9510,7 +9510,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7675B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E34F0&gt;</t>
         </is>
       </c>
       <c r="J153" t="n">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767610&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3550&gt;</t>
         </is>
       </c>
       <c r="J154" t="n">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767670&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E35B0&gt;</t>
         </is>
       </c>
       <c r="J155" t="n">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7676D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3610&gt;</t>
         </is>
       </c>
       <c r="J156" t="n">
@@ -9750,7 +9750,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767730&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3670&gt;</t>
         </is>
       </c>
       <c r="J157" t="n">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767790&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E36D0&gt;</t>
         </is>
       </c>
       <c r="J158" t="n">
@@ -9870,7 +9870,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7677F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3730&gt;</t>
         </is>
       </c>
       <c r="J159" t="n">
@@ -9930,7 +9930,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767850&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3790&gt;</t>
         </is>
       </c>
       <c r="J160" t="n">
@@ -9990,7 +9990,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7678B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E37F0&gt;</t>
         </is>
       </c>
       <c r="J161" t="n">
@@ -10050,7 +10050,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767910&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3850&gt;</t>
         </is>
       </c>
       <c r="J162" t="n">
@@ -10110,7 +10110,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767970&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E38B0&gt;</t>
         </is>
       </c>
       <c r="J163" t="n">
@@ -10170,7 +10170,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7679D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3910&gt;</t>
         </is>
       </c>
       <c r="J164" t="n">
@@ -10230,7 +10230,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767A30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3970&gt;</t>
         </is>
       </c>
       <c r="J165" t="n">
@@ -10290,7 +10290,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767A90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E39D0&gt;</t>
         </is>
       </c>
       <c r="J166" t="n">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767AF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3A30&gt;</t>
         </is>
       </c>
       <c r="J167" t="n">
@@ -10410,7 +10410,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767B50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3A90&gt;</t>
         </is>
       </c>
       <c r="J168" t="n">
@@ -10470,7 +10470,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767BB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3AF0&gt;</t>
         </is>
       </c>
       <c r="J169" t="n">
@@ -10530,7 +10530,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767C10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3B50&gt;</t>
         </is>
       </c>
       <c r="J170" t="n">
@@ -10590,7 +10590,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767C70&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3BB0&gt;</t>
         </is>
       </c>
       <c r="J171" t="n">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767CD0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3C10&gt;</t>
         </is>
       </c>
       <c r="J172" t="n">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767D30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3C70&gt;</t>
         </is>
       </c>
       <c r="J173" t="n">
@@ -10770,7 +10770,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767D90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3CD0&gt;</t>
         </is>
       </c>
       <c r="J174" t="n">
@@ -10830,7 +10830,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767DF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3D30&gt;</t>
         </is>
       </c>
       <c r="J175" t="n">
@@ -10890,7 +10890,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767E50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3D90&gt;</t>
         </is>
       </c>
       <c r="J176" t="n">
@@ -10950,7 +10950,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767EB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3DF0&gt;</t>
         </is>
       </c>
       <c r="J177" t="n">
@@ -11010,7 +11010,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B767F10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3E50&gt;</t>
         </is>
       </c>
       <c r="J178" t="n">
@@ -11070,7 +11070,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7670A0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3EB0&gt;</t>
         </is>
       </c>
       <c r="J179" t="n">
@@ -11130,7 +11130,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E100&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3F10&gt;</t>
         </is>
       </c>
       <c r="J180" t="n">
@@ -11190,7 +11190,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E070&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798E3130&gt;</t>
         </is>
       </c>
       <c r="J181" t="n">
@@ -11250,7 +11250,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E0D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE070&gt;</t>
         </is>
       </c>
       <c r="J182" t="n">
@@ -11310,7 +11310,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E040&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE160&gt;</t>
         </is>
       </c>
       <c r="J183" t="n">
@@ -11370,7 +11370,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E190&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE100&gt;</t>
         </is>
       </c>
       <c r="J184" t="n">
@@ -11430,7 +11430,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E1F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE0A0&gt;</t>
         </is>
       </c>
       <c r="J185" t="n">
@@ -11490,7 +11490,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E250&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE190&gt;</t>
         </is>
       </c>
       <c r="J186" t="n">
@@ -11550,7 +11550,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E2B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE1F0&gt;</t>
         </is>
       </c>
       <c r="J187" t="n">
@@ -11610,7 +11610,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E310&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE250&gt;</t>
         </is>
       </c>
       <c r="J188" t="n">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E370&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE2B0&gt;</t>
         </is>
       </c>
       <c r="J189" t="n">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E3D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE310&gt;</t>
         </is>
       </c>
       <c r="J190" t="n">
@@ -11790,7 +11790,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E430&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE370&gt;</t>
         </is>
       </c>
       <c r="J191" t="n">
@@ -11850,7 +11850,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E490&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE3D0&gt;</t>
         </is>
       </c>
       <c r="J192" t="n">
@@ -11910,7 +11910,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E4F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE430&gt;</t>
         </is>
       </c>
       <c r="J193" t="n">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E550&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE490&gt;</t>
         </is>
       </c>
       <c r="J194" t="n">
@@ -12030,7 +12030,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E5B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE4F0&gt;</t>
         </is>
       </c>
       <c r="J195" t="n">
@@ -12090,7 +12090,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E610&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE550&gt;</t>
         </is>
       </c>
       <c r="J196" t="n">
@@ -12150,7 +12150,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E670&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE5B0&gt;</t>
         </is>
       </c>
       <c r="J197" t="n">
@@ -12210,7 +12210,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E6D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE610&gt;</t>
         </is>
       </c>
       <c r="J198" t="n">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E730&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE670&gt;</t>
         </is>
       </c>
       <c r="J199" t="n">
@@ -12330,7 +12330,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E790&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE6D0&gt;</t>
         </is>
       </c>
       <c r="J200" t="n">
@@ -12390,7 +12390,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E7F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE730&gt;</t>
         </is>
       </c>
       <c r="J201" t="n">
@@ -12450,7 +12450,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E850&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE790&gt;</t>
         </is>
       </c>
       <c r="J202" t="n">
@@ -12510,7 +12510,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E8B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE7F0&gt;</t>
         </is>
       </c>
       <c r="J203" t="n">
@@ -12570,7 +12570,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E910&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE850&gt;</t>
         </is>
       </c>
       <c r="J204" t="n">
@@ -12630,7 +12630,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E970&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE8B0&gt;</t>
         </is>
       </c>
       <c r="J205" t="n">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E9D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE910&gt;</t>
         </is>
       </c>
       <c r="J206" t="n">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77EA30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE970&gt;</t>
         </is>
       </c>
       <c r="J207" t="n">
@@ -12810,7 +12810,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77EA90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE9D0&gt;</t>
         </is>
       </c>
       <c r="J208" t="n">
@@ -12870,7 +12870,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77EAF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BEA30&gt;</t>
         </is>
       </c>
       <c r="J209" t="n">
@@ -12930,7 +12930,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77EB50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BEA90&gt;</t>
         </is>
       </c>
       <c r="J210" t="n">
@@ -12990,7 +12990,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77EBB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BEAF0&gt;</t>
         </is>
       </c>
       <c r="J211" t="n">
@@ -13050,7 +13050,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77EC10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BEB50&gt;</t>
         </is>
       </c>
       <c r="J212" t="n">
@@ -13110,7 +13110,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77EC70&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BEBB0&gt;</t>
         </is>
       </c>
       <c r="J213" t="n">
@@ -13170,7 +13170,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77ECD0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BEC10&gt;</t>
         </is>
       </c>
       <c r="J214" t="n">
@@ -13230,7 +13230,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77ED30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BEC70&gt;</t>
         </is>
       </c>
       <c r="J215" t="n">
@@ -13290,7 +13290,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77ED90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BECD0&gt;</t>
         </is>
       </c>
       <c r="J216" t="n">
@@ -13350,7 +13350,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77EDF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BED30&gt;</t>
         </is>
       </c>
       <c r="J217" t="n">
@@ -13410,7 +13410,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77EE50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BED90&gt;</t>
         </is>
       </c>
       <c r="J218" t="n">
@@ -13470,7 +13470,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77EEB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BEDF0&gt;</t>
         </is>
       </c>
       <c r="J219" t="n">
@@ -13530,7 +13530,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77EF10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BEE50&gt;</t>
         </is>
       </c>
       <c r="J220" t="n">
@@ -13590,7 +13590,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B77E0A0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BEEB0&gt;</t>
         </is>
       </c>
       <c r="J221" t="n">
@@ -13650,7 +13650,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741100&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BEF10&gt;</t>
         </is>
       </c>
       <c r="J222" t="n">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741070&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BE130&gt;</t>
         </is>
       </c>
       <c r="J223" t="n">
@@ -13770,7 +13770,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7410D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5070&gt;</t>
         </is>
       </c>
       <c r="J224" t="n">
@@ -13830,7 +13830,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741040&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5160&gt;</t>
         </is>
       </c>
       <c r="J225" t="n">
@@ -13890,7 +13890,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741190&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5100&gt;</t>
         </is>
       </c>
       <c r="J226" t="n">
@@ -13950,7 +13950,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7411F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D50A0&gt;</t>
         </is>
       </c>
       <c r="J227" t="n">
@@ -14010,7 +14010,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741250&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5190&gt;</t>
         </is>
       </c>
       <c r="J228" t="n">
@@ -14070,7 +14070,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7412B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D51F0&gt;</t>
         </is>
       </c>
       <c r="J229" t="n">
@@ -14130,7 +14130,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741310&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5250&gt;</t>
         </is>
       </c>
       <c r="J230" t="n">
@@ -14190,7 +14190,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741370&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D52B0&gt;</t>
         </is>
       </c>
       <c r="J231" t="n">
@@ -14250,7 +14250,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7413D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5310&gt;</t>
         </is>
       </c>
       <c r="J232" t="n">
@@ -14310,7 +14310,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741430&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5370&gt;</t>
         </is>
       </c>
       <c r="J233" t="n">
@@ -14370,7 +14370,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741490&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D53D0&gt;</t>
         </is>
       </c>
       <c r="J234" t="n">
@@ -14430,7 +14430,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7414F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5430&gt;</t>
         </is>
       </c>
       <c r="J235" t="n">
@@ -14490,7 +14490,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741550&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5490&gt;</t>
         </is>
       </c>
       <c r="J236" t="n">
@@ -14550,7 +14550,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7415B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D54F0&gt;</t>
         </is>
       </c>
       <c r="J237" t="n">
@@ -14610,7 +14610,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741610&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5550&gt;</t>
         </is>
       </c>
       <c r="J238" t="n">
@@ -14670,7 +14670,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741670&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D55B0&gt;</t>
         </is>
       </c>
       <c r="J239" t="n">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7416D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5610&gt;</t>
         </is>
       </c>
       <c r="J240" t="n">
@@ -14790,7 +14790,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741730&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5670&gt;</t>
         </is>
       </c>
       <c r="J241" t="n">
@@ -14850,7 +14850,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741790&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D56D0&gt;</t>
         </is>
       </c>
       <c r="J242" t="n">
@@ -14910,7 +14910,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7417F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5730&gt;</t>
         </is>
       </c>
       <c r="J243" t="n">
@@ -14970,7 +14970,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741850&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5790&gt;</t>
         </is>
       </c>
       <c r="J244" t="n">
@@ -15030,7 +15030,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7418B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D57F0&gt;</t>
         </is>
       </c>
       <c r="J245" t="n">
@@ -15090,7 +15090,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741910&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5850&gt;</t>
         </is>
       </c>
       <c r="J246" t="n">
@@ -15150,7 +15150,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741970&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D58B0&gt;</t>
         </is>
       </c>
       <c r="J247" t="n">
@@ -15210,7 +15210,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7419D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5910&gt;</t>
         </is>
       </c>
       <c r="J248" t="n">
@@ -15270,7 +15270,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741A30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5970&gt;</t>
         </is>
       </c>
       <c r="J249" t="n">
@@ -15330,7 +15330,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741A90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D59D0&gt;</t>
         </is>
       </c>
       <c r="J250" t="n">
@@ -15390,7 +15390,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741AF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5A30&gt;</t>
         </is>
       </c>
       <c r="J251" t="n">
@@ -15450,7 +15450,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741B50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5A90&gt;</t>
         </is>
       </c>
       <c r="J252" t="n">
@@ -15510,7 +15510,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741BB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5AF0&gt;</t>
         </is>
       </c>
       <c r="J253" t="n">
@@ -15570,7 +15570,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741C10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5B50&gt;</t>
         </is>
       </c>
       <c r="J254" t="n">
@@ -15630,7 +15630,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741C70&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5BB0&gt;</t>
         </is>
       </c>
       <c r="J255" t="n">
@@ -15690,7 +15690,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741CD0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5C10&gt;</t>
         </is>
       </c>
       <c r="J256" t="n">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741D30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5C70&gt;</t>
         </is>
       </c>
       <c r="J257" t="n">
@@ -15810,7 +15810,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741D90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5CD0&gt;</t>
         </is>
       </c>
       <c r="J258" t="n">
@@ -15870,7 +15870,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741DF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5D30&gt;</t>
         </is>
       </c>
       <c r="J259" t="n">
@@ -15930,7 +15930,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741E50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5D90&gt;</t>
         </is>
       </c>
       <c r="J260" t="n">
@@ -15990,7 +15990,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741EB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5DF0&gt;</t>
         </is>
       </c>
       <c r="J261" t="n">
@@ -16050,7 +16050,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B741F10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5E50&gt;</t>
         </is>
       </c>
       <c r="J262" t="n">
@@ -16110,7 +16110,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7410A0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5EB0&gt;</t>
         </is>
       </c>
       <c r="J263" t="n">
@@ -16170,7 +16170,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F100&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5F10&gt;</t>
         </is>
       </c>
       <c r="J264" t="n">
@@ -16230,7 +16230,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F070&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798D5130&gt;</t>
         </is>
       </c>
       <c r="J265" t="n">
@@ -16290,7 +16290,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F0D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC070&gt;</t>
         </is>
       </c>
       <c r="J266" t="n">
@@ -16350,7 +16350,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F040&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC160&gt;</t>
         </is>
       </c>
       <c r="J267" t="n">
@@ -16410,7 +16410,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F190&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC100&gt;</t>
         </is>
       </c>
       <c r="J268" t="n">
@@ -16470,7 +16470,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F1F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC0A0&gt;</t>
         </is>
       </c>
       <c r="J269" t="n">
@@ -16530,7 +16530,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F250&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC190&gt;</t>
         </is>
       </c>
       <c r="J270" t="n">
@@ -16590,7 +16590,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F2B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC1F0&gt;</t>
         </is>
       </c>
       <c r="J271" t="n">
@@ -16650,7 +16650,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F310&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC250&gt;</t>
         </is>
       </c>
       <c r="J272" t="n">
@@ -16710,7 +16710,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F370&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC2B0&gt;</t>
         </is>
       </c>
       <c r="J273" t="n">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F3D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC310&gt;</t>
         </is>
       </c>
       <c r="J274" t="n">
@@ -16830,7 +16830,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F430&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC370&gt;</t>
         </is>
       </c>
       <c r="J275" t="n">
@@ -16890,7 +16890,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F490&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC3D0&gt;</t>
         </is>
       </c>
       <c r="J276" t="n">
@@ -16950,7 +16950,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F4F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC430&gt;</t>
         </is>
       </c>
       <c r="J277" t="n">
@@ -17010,7 +17010,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F550&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC490&gt;</t>
         </is>
       </c>
       <c r="J278" t="n">
@@ -17070,7 +17070,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F5B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC4F0&gt;</t>
         </is>
       </c>
       <c r="J279" t="n">
@@ -17130,7 +17130,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F610&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC550&gt;</t>
         </is>
       </c>
       <c r="J280" t="n">
@@ -17190,7 +17190,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F670&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC5B0&gt;</t>
         </is>
       </c>
       <c r="J281" t="n">
@@ -17250,7 +17250,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F6D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC610&gt;</t>
         </is>
       </c>
       <c r="J282" t="n">
@@ -17310,7 +17310,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F730&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC670&gt;</t>
         </is>
       </c>
       <c r="J283" t="n">
@@ -17370,7 +17370,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F790&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC6D0&gt;</t>
         </is>
       </c>
       <c r="J284" t="n">
@@ -17430,7 +17430,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F7F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC730&gt;</t>
         </is>
       </c>
       <c r="J285" t="n">
@@ -17490,7 +17490,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F850&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC790&gt;</t>
         </is>
       </c>
       <c r="J286" t="n">
@@ -17550,7 +17550,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F8B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC7F0&gt;</t>
         </is>
       </c>
       <c r="J287" t="n">
@@ -17610,7 +17610,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F910&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC850&gt;</t>
         </is>
       </c>
       <c r="J288" t="n">
@@ -17670,7 +17670,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F970&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC8B0&gt;</t>
         </is>
       </c>
       <c r="J289" t="n">
@@ -17730,7 +17730,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F9D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC910&gt;</t>
         </is>
       </c>
       <c r="J290" t="n">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76FA30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC970&gt;</t>
         </is>
       </c>
       <c r="J291" t="n">
@@ -17850,7 +17850,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76FA90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC9D0&gt;</t>
         </is>
       </c>
       <c r="J292" t="n">
@@ -17910,7 +17910,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76FAF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DCA30&gt;</t>
         </is>
       </c>
       <c r="J293" t="n">
@@ -17970,7 +17970,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76FB50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DCA90&gt;</t>
         </is>
       </c>
       <c r="J294" t="n">
@@ -18030,7 +18030,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76FBB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DCAF0&gt;</t>
         </is>
       </c>
       <c r="J295" t="n">
@@ -18090,7 +18090,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76FC10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DCB50&gt;</t>
         </is>
       </c>
       <c r="J296" t="n">
@@ -18150,7 +18150,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76FC70&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DCBB0&gt;</t>
         </is>
       </c>
       <c r="J297" t="n">
@@ -18210,7 +18210,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76FCD0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DCC10&gt;</t>
         </is>
       </c>
       <c r="J298" t="n">
@@ -18270,7 +18270,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76FD30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DCC70&gt;</t>
         </is>
       </c>
       <c r="J299" t="n">
@@ -18330,7 +18330,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76FD90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DCCD0&gt;</t>
         </is>
       </c>
       <c r="J300" t="n">
@@ -18390,7 +18390,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76FDF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DCD30&gt;</t>
         </is>
       </c>
       <c r="J301" t="n">
@@ -18450,7 +18450,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76FE50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DCD90&gt;</t>
         </is>
       </c>
       <c r="J302" t="n">
@@ -18510,7 +18510,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76FEB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DCDF0&gt;</t>
         </is>
       </c>
       <c r="J303" t="n">
@@ -18570,7 +18570,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76FF10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DCE50&gt;</t>
         </is>
       </c>
       <c r="J304" t="n">
@@ -18630,7 +18630,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B76F0A0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DCEB0&gt;</t>
         </is>
       </c>
       <c r="J305" t="n">
@@ -18690,7 +18690,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760070&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DCF10&gt;</t>
         </is>
       </c>
       <c r="J306" t="n">
@@ -18750,7 +18750,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760160&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DC130&gt;</t>
         </is>
       </c>
       <c r="J307" t="n">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760100&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE070&gt;</t>
         </is>
       </c>
       <c r="J308" t="n">
@@ -18870,7 +18870,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7600A0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE160&gt;</t>
         </is>
       </c>
       <c r="J309" t="n">
@@ -18930,7 +18930,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760190&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE100&gt;</t>
         </is>
       </c>
       <c r="J310" t="n">
@@ -18990,7 +18990,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7601F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE0A0&gt;</t>
         </is>
       </c>
       <c r="J311" t="n">
@@ -19050,7 +19050,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760250&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE190&gt;</t>
         </is>
       </c>
       <c r="J312" t="n">
@@ -19110,7 +19110,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7602B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE1F0&gt;</t>
         </is>
       </c>
       <c r="J313" t="n">
@@ -19170,7 +19170,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760310&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE250&gt;</t>
         </is>
       </c>
       <c r="J314" t="n">
@@ -19230,7 +19230,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760370&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE2B0&gt;</t>
         </is>
       </c>
       <c r="J315" t="n">
@@ -19290,7 +19290,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7603D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE310&gt;</t>
         </is>
       </c>
       <c r="J316" t="n">
@@ -19350,7 +19350,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760430&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE370&gt;</t>
         </is>
       </c>
       <c r="J317" t="n">
@@ -19410,7 +19410,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760490&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE3D0&gt;</t>
         </is>
       </c>
       <c r="J318" t="n">
@@ -19470,7 +19470,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7604F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE430&gt;</t>
         </is>
       </c>
       <c r="J319" t="n">
@@ -19530,7 +19530,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760550&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE490&gt;</t>
         </is>
       </c>
       <c r="J320" t="n">
@@ -19590,7 +19590,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7605B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE4F0&gt;</t>
         </is>
       </c>
       <c r="J321" t="n">
@@ -19650,7 +19650,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760610&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE550&gt;</t>
         </is>
       </c>
       <c r="J322" t="n">
@@ -19710,7 +19710,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760670&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE5B0&gt;</t>
         </is>
       </c>
       <c r="J323" t="n">
@@ -19770,7 +19770,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7606D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE610&gt;</t>
         </is>
       </c>
       <c r="J324" t="n">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760730&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE670&gt;</t>
         </is>
       </c>
       <c r="J325" t="n">
@@ -19890,7 +19890,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760790&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE6D0&gt;</t>
         </is>
       </c>
       <c r="J326" t="n">
@@ -19950,7 +19950,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7607F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE730&gt;</t>
         </is>
       </c>
       <c r="J327" t="n">
@@ -20010,7 +20010,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760850&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE790&gt;</t>
         </is>
       </c>
       <c r="J328" t="n">
@@ -20070,7 +20070,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7608B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE7F0&gt;</t>
         </is>
       </c>
       <c r="J329" t="n">
@@ -20130,7 +20130,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760910&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE850&gt;</t>
         </is>
       </c>
       <c r="J330" t="n">
@@ -20190,7 +20190,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760970&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE8B0&gt;</t>
         </is>
       </c>
       <c r="J331" t="n">
@@ -20250,7 +20250,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7609D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE910&gt;</t>
         </is>
       </c>
       <c r="J332" t="n">
@@ -20310,7 +20310,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760A30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE970&gt;</t>
         </is>
       </c>
       <c r="J333" t="n">
@@ -20370,7 +20370,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760A90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE9D0&gt;</t>
         </is>
       </c>
       <c r="J334" t="n">
@@ -20430,7 +20430,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760AF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CEA30&gt;</t>
         </is>
       </c>
       <c r="J335" t="n">
@@ -20490,7 +20490,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760B50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CEA90&gt;</t>
         </is>
       </c>
       <c r="J336" t="n">
@@ -20550,7 +20550,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760BB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CEAF0&gt;</t>
         </is>
       </c>
       <c r="J337" t="n">
@@ -20610,7 +20610,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760C10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CEB50&gt;</t>
         </is>
       </c>
       <c r="J338" t="n">
@@ -20670,7 +20670,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760C70&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CEBB0&gt;</t>
         </is>
       </c>
       <c r="J339" t="n">
@@ -20730,7 +20730,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760CD0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CEC10&gt;</t>
         </is>
       </c>
       <c r="J340" t="n">
@@ -20790,7 +20790,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760D30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CEC70&gt;</t>
         </is>
       </c>
       <c r="J341" t="n">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760D90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CECD0&gt;</t>
         </is>
       </c>
       <c r="J342" t="n">
@@ -20910,7 +20910,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760DF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CED30&gt;</t>
         </is>
       </c>
       <c r="J343" t="n">
@@ -20970,7 +20970,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760E50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CED90&gt;</t>
         </is>
       </c>
       <c r="J344" t="n">
@@ -21030,7 +21030,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760EB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CEDF0&gt;</t>
         </is>
       </c>
       <c r="J345" t="n">
@@ -21090,7 +21090,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760F10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CEE50&gt;</t>
         </is>
       </c>
       <c r="J346" t="n">
@@ -21150,7 +21150,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B760130&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CEEB0&gt;</t>
         </is>
       </c>
       <c r="J347" t="n">
@@ -21210,7 +21210,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777100&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CEF10&gt;</t>
         </is>
       </c>
       <c r="J348" t="n">
@@ -21270,7 +21270,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777070&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798CE130&gt;</t>
         </is>
       </c>
       <c r="J349" t="n">
@@ -21330,7 +21330,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7770D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF070&gt;</t>
         </is>
       </c>
       <c r="J350" t="n">
@@ -21390,7 +21390,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777040&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF160&gt;</t>
         </is>
       </c>
       <c r="J351" t="n">
@@ -21450,7 +21450,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777190&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF100&gt;</t>
         </is>
       </c>
       <c r="J352" t="n">
@@ -21510,7 +21510,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7771F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF0A0&gt;</t>
         </is>
       </c>
       <c r="J353" t="n">
@@ -21570,7 +21570,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777250&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF190&gt;</t>
         </is>
       </c>
       <c r="J354" t="n">
@@ -21630,7 +21630,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7772B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF1F0&gt;</t>
         </is>
       </c>
       <c r="J355" t="n">
@@ -21690,7 +21690,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777310&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF250&gt;</t>
         </is>
       </c>
       <c r="J356" t="n">
@@ -21750,7 +21750,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777370&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF2B0&gt;</t>
         </is>
       </c>
       <c r="J357" t="n">
@@ -21810,7 +21810,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7773D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF310&gt;</t>
         </is>
       </c>
       <c r="J358" t="n">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777430&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF370&gt;</t>
         </is>
       </c>
       <c r="J359" t="n">
@@ -21930,7 +21930,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777490&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF3D0&gt;</t>
         </is>
       </c>
       <c r="J360" t="n">
@@ -21990,7 +21990,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7774F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF430&gt;</t>
         </is>
       </c>
       <c r="J361" t="n">
@@ -22050,7 +22050,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777550&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF490&gt;</t>
         </is>
       </c>
       <c r="J362" t="n">
@@ -22110,7 +22110,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7775B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF4F0&gt;</t>
         </is>
       </c>
       <c r="J363" t="n">
@@ -22170,7 +22170,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777610&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF550&gt;</t>
         </is>
       </c>
       <c r="J364" t="n">
@@ -22230,7 +22230,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777670&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF5B0&gt;</t>
         </is>
       </c>
       <c r="J365" t="n">
@@ -22290,7 +22290,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7776D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF610&gt;</t>
         </is>
       </c>
       <c r="J366" t="n">
@@ -22350,7 +22350,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777730&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF670&gt;</t>
         </is>
       </c>
       <c r="J367" t="n">
@@ -22410,7 +22410,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777790&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF6D0&gt;</t>
         </is>
       </c>
       <c r="J368" t="n">
@@ -22470,7 +22470,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7777F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF730&gt;</t>
         </is>
       </c>
       <c r="J369" t="n">
@@ -22530,7 +22530,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777850&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF790&gt;</t>
         </is>
       </c>
       <c r="J370" t="n">
@@ -22590,7 +22590,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7778B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF7F0&gt;</t>
         </is>
       </c>
       <c r="J371" t="n">
@@ -22650,7 +22650,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777910&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF850&gt;</t>
         </is>
       </c>
       <c r="J372" t="n">
@@ -22710,7 +22710,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777970&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF8B0&gt;</t>
         </is>
       </c>
       <c r="J373" t="n">
@@ -22770,7 +22770,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7779D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF910&gt;</t>
         </is>
       </c>
       <c r="J374" t="n">
@@ -22830,7 +22830,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777A30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF970&gt;</t>
         </is>
       </c>
       <c r="J375" t="n">
@@ -22890,7 +22890,7 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777A90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF9D0&gt;</t>
         </is>
       </c>
       <c r="J376" t="n">
@@ -22950,7 +22950,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777AF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BFA30&gt;</t>
         </is>
       </c>
       <c r="J377" t="n">
@@ -23010,7 +23010,7 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777B50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BFA90&gt;</t>
         </is>
       </c>
       <c r="J378" t="n">
@@ -23070,7 +23070,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777BB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BFAF0&gt;</t>
         </is>
       </c>
       <c r="J379" t="n">
@@ -23130,7 +23130,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777C10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BFB50&gt;</t>
         </is>
       </c>
       <c r="J380" t="n">
@@ -23190,7 +23190,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777C70&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BFBB0&gt;</t>
         </is>
       </c>
       <c r="J381" t="n">
@@ -23250,7 +23250,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777CD0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BFC10&gt;</t>
         </is>
       </c>
       <c r="J382" t="n">
@@ -23310,7 +23310,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777D30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BFC70&gt;</t>
         </is>
       </c>
       <c r="J383" t="n">
@@ -23370,7 +23370,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777D90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BFCD0&gt;</t>
         </is>
       </c>
       <c r="J384" t="n">
@@ -23430,7 +23430,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777DF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BFD30&gt;</t>
         </is>
       </c>
       <c r="J385" t="n">
@@ -23490,7 +23490,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777E50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BFD90&gt;</t>
         </is>
       </c>
       <c r="J386" t="n">
@@ -23550,7 +23550,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777EB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BFDF0&gt;</t>
         </is>
       </c>
       <c r="J387" t="n">
@@ -23610,7 +23610,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B777F10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BFE50&gt;</t>
         </is>
       </c>
       <c r="J388" t="n">
@@ -23670,7 +23670,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7770A0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BFEB0&gt;</t>
         </is>
       </c>
       <c r="J389" t="n">
@@ -23730,7 +23730,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768100&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BFF10&gt;</t>
         </is>
       </c>
       <c r="J390" t="n">
@@ -23790,7 +23790,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768070&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798BF130&gt;</t>
         </is>
       </c>
       <c r="J391" t="n">
@@ -23850,7 +23850,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7680D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC070&gt;</t>
         </is>
       </c>
       <c r="J392" t="n">
@@ -23910,7 +23910,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768040&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC160&gt;</t>
         </is>
       </c>
       <c r="J393" t="n">
@@ -23970,7 +23970,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768190&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC100&gt;</t>
         </is>
       </c>
       <c r="J394" t="n">
@@ -24030,7 +24030,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7681F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC0A0&gt;</t>
         </is>
       </c>
       <c r="J395" t="n">
@@ -24090,7 +24090,7 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768250&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC190&gt;</t>
         </is>
       </c>
       <c r="J396" t="n">
@@ -24150,7 +24150,7 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7682B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC1F0&gt;</t>
         </is>
       </c>
       <c r="J397" t="n">
@@ -24210,7 +24210,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768310&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC250&gt;</t>
         </is>
       </c>
       <c r="J398" t="n">
@@ -24270,7 +24270,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768370&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC2B0&gt;</t>
         </is>
       </c>
       <c r="J399" t="n">
@@ -24330,7 +24330,7 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7683D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC310&gt;</t>
         </is>
       </c>
       <c r="J400" t="n">
@@ -24390,7 +24390,7 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768430&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC370&gt;</t>
         </is>
       </c>
       <c r="J401" t="n">
@@ -24450,7 +24450,7 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768490&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC3D0&gt;</t>
         </is>
       </c>
       <c r="J402" t="n">
@@ -24510,7 +24510,7 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7684F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC430&gt;</t>
         </is>
       </c>
       <c r="J403" t="n">
@@ -24570,7 +24570,7 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768550&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC490&gt;</t>
         </is>
       </c>
       <c r="J404" t="n">
@@ -24630,7 +24630,7 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7685B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC4F0&gt;</t>
         </is>
       </c>
       <c r="J405" t="n">
@@ -24690,7 +24690,7 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768610&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC550&gt;</t>
         </is>
       </c>
       <c r="J406" t="n">
@@ -24750,7 +24750,7 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768670&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC5B0&gt;</t>
         </is>
       </c>
       <c r="J407" t="n">
@@ -24810,7 +24810,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7686D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC610&gt;</t>
         </is>
       </c>
       <c r="J408" t="n">
@@ -24870,7 +24870,7 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768730&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC670&gt;</t>
         </is>
       </c>
       <c r="J409" t="n">
@@ -24930,7 +24930,7 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768790&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC6D0&gt;</t>
         </is>
       </c>
       <c r="J410" t="n">
@@ -24990,7 +24990,7 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7687F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC730&gt;</t>
         </is>
       </c>
       <c r="J411" t="n">
@@ -25050,7 +25050,7 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768850&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC790&gt;</t>
         </is>
       </c>
       <c r="J412" t="n">
@@ -25110,7 +25110,7 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7688B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC7F0&gt;</t>
         </is>
       </c>
       <c r="J413" t="n">
@@ -25170,7 +25170,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768910&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC850&gt;</t>
         </is>
       </c>
       <c r="J414" t="n">
@@ -25230,7 +25230,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768970&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC8B0&gt;</t>
         </is>
       </c>
       <c r="J415" t="n">
@@ -25290,7 +25290,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7689D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC910&gt;</t>
         </is>
       </c>
       <c r="J416" t="n">
@@ -25350,7 +25350,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768A30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC970&gt;</t>
         </is>
       </c>
       <c r="J417" t="n">
@@ -25410,7 +25410,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768A90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC9D0&gt;</t>
         </is>
       </c>
       <c r="J418" t="n">
@@ -25470,7 +25470,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768AF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798ECA30&gt;</t>
         </is>
       </c>
       <c r="J419" t="n">
@@ -25530,7 +25530,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768B50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798ECA90&gt;</t>
         </is>
       </c>
       <c r="J420" t="n">
@@ -25590,7 +25590,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768BB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798ECAF0&gt;</t>
         </is>
       </c>
       <c r="J421" t="n">
@@ -25650,7 +25650,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768C10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798ECB50&gt;</t>
         </is>
       </c>
       <c r="J422" t="n">
@@ -25710,7 +25710,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768C70&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798ECBB0&gt;</t>
         </is>
       </c>
       <c r="J423" t="n">
@@ -25770,7 +25770,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768CD0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798ECC10&gt;</t>
         </is>
       </c>
       <c r="J424" t="n">
@@ -25830,7 +25830,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768D30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798ECC70&gt;</t>
         </is>
       </c>
       <c r="J425" t="n">
@@ -25890,7 +25890,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768D90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798ECCD0&gt;</t>
         </is>
       </c>
       <c r="J426" t="n">
@@ -25950,7 +25950,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768DF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798ECD30&gt;</t>
         </is>
       </c>
       <c r="J427" t="n">
@@ -26010,7 +26010,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768E50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798ECD90&gt;</t>
         </is>
       </c>
       <c r="J428" t="n">
@@ -26070,7 +26070,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768EB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798ECDF0&gt;</t>
         </is>
       </c>
       <c r="J429" t="n">
@@ -26130,7 +26130,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B768F10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798ECE50&gt;</t>
         </is>
       </c>
       <c r="J430" t="n">
@@ -26190,7 +26190,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7680A0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798ECEB0&gt;</t>
         </is>
       </c>
       <c r="J431" t="n">
@@ -26250,7 +26250,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742070&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798ECF10&gt;</t>
         </is>
       </c>
       <c r="J432" t="n">
@@ -26310,7 +26310,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742160&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798EC130&gt;</t>
         </is>
       </c>
       <c r="J433" t="n">
@@ -26370,7 +26370,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742100&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0070&gt;</t>
         </is>
       </c>
       <c r="J434" t="n">
@@ -26430,7 +26430,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7420A0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0160&gt;</t>
         </is>
       </c>
       <c r="J435" t="n">
@@ -26490,7 +26490,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742190&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0100&gt;</t>
         </is>
       </c>
       <c r="J436" t="n">
@@ -26550,7 +26550,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7421F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B00A0&gt;</t>
         </is>
       </c>
       <c r="J437" t="n">
@@ -26610,7 +26610,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742250&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0190&gt;</t>
         </is>
       </c>
       <c r="J438" t="n">
@@ -26670,7 +26670,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7422B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B01F0&gt;</t>
         </is>
       </c>
       <c r="J439" t="n">
@@ -26730,7 +26730,7 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742310&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0250&gt;</t>
         </is>
       </c>
       <c r="J440" t="n">
@@ -26790,7 +26790,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742370&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B02B0&gt;</t>
         </is>
       </c>
       <c r="J441" t="n">
@@ -26850,7 +26850,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7423D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0310&gt;</t>
         </is>
       </c>
       <c r="J442" t="n">
@@ -26910,7 +26910,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742430&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0370&gt;</t>
         </is>
       </c>
       <c r="J443" t="n">
@@ -26970,7 +26970,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742490&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B03D0&gt;</t>
         </is>
       </c>
       <c r="J444" t="n">
@@ -27030,7 +27030,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7424F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0430&gt;</t>
         </is>
       </c>
       <c r="J445" t="n">
@@ -27090,7 +27090,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742550&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0490&gt;</t>
         </is>
       </c>
       <c r="J446" t="n">
@@ -27150,7 +27150,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7425B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B04F0&gt;</t>
         </is>
       </c>
       <c r="J447" t="n">
@@ -27210,7 +27210,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742610&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0550&gt;</t>
         </is>
       </c>
       <c r="J448" t="n">
@@ -27270,7 +27270,7 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742670&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B05B0&gt;</t>
         </is>
       </c>
       <c r="J449" t="n">
@@ -27330,7 +27330,7 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7426D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0610&gt;</t>
         </is>
       </c>
       <c r="J450" t="n">
@@ -27390,7 +27390,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742730&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0670&gt;</t>
         </is>
       </c>
       <c r="J451" t="n">
@@ -27450,7 +27450,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742790&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B06D0&gt;</t>
         </is>
       </c>
       <c r="J452" t="n">
@@ -27510,7 +27510,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7427F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0730&gt;</t>
         </is>
       </c>
       <c r="J453" t="n">
@@ -27570,7 +27570,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742850&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0790&gt;</t>
         </is>
       </c>
       <c r="J454" t="n">
@@ -27630,7 +27630,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7428B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B07F0&gt;</t>
         </is>
       </c>
       <c r="J455" t="n">
@@ -27690,7 +27690,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742910&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0850&gt;</t>
         </is>
       </c>
       <c r="J456" t="n">
@@ -27750,7 +27750,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742970&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B08B0&gt;</t>
         </is>
       </c>
       <c r="J457" t="n">
@@ -27810,7 +27810,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7429D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0910&gt;</t>
         </is>
       </c>
       <c r="J458" t="n">
@@ -27870,7 +27870,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742A30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0970&gt;</t>
         </is>
       </c>
       <c r="J459" t="n">
@@ -27930,7 +27930,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742A90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B09D0&gt;</t>
         </is>
       </c>
       <c r="J460" t="n">
@@ -27990,7 +27990,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742AF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0A30&gt;</t>
         </is>
       </c>
       <c r="J461" t="n">
@@ -28050,7 +28050,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742B50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0A90&gt;</t>
         </is>
       </c>
       <c r="J462" t="n">
@@ -28110,7 +28110,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742BB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0AF0&gt;</t>
         </is>
       </c>
       <c r="J463" t="n">
@@ -28170,7 +28170,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742C10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0B50&gt;</t>
         </is>
       </c>
       <c r="J464" t="n">
@@ -28230,7 +28230,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742C70&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0BB0&gt;</t>
         </is>
       </c>
       <c r="J465" t="n">
@@ -28290,7 +28290,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742CD0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0C10&gt;</t>
         </is>
       </c>
       <c r="J466" t="n">
@@ -28350,7 +28350,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742D30&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0C70&gt;</t>
         </is>
       </c>
       <c r="J467" t="n">
@@ -28410,7 +28410,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742D90&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0CD0&gt;</t>
         </is>
       </c>
       <c r="J468" t="n">
@@ -28470,7 +28470,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742DF0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0D30&gt;</t>
         </is>
       </c>
       <c r="J469" t="n">
@@ -28530,7 +28530,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742E50&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0D90&gt;</t>
         </is>
       </c>
       <c r="J470" t="n">
@@ -28590,7 +28590,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742EB0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0DF0&gt;</t>
         </is>
       </c>
       <c r="J471" t="n">
@@ -28650,7 +28650,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742F10&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0E50&gt;</t>
         </is>
       </c>
       <c r="J472" t="n">
@@ -28710,7 +28710,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B742130&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0EB0&gt;</t>
         </is>
       </c>
       <c r="J473" t="n">
@@ -28770,7 +28770,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B759100&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0F10&gt;</t>
         </is>
       </c>
       <c r="J474" t="n">
@@ -28830,7 +28830,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B759070&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798B0130&gt;</t>
         </is>
       </c>
       <c r="J475" t="n">
@@ -28890,7 +28890,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7590D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DD070&gt;</t>
         </is>
       </c>
       <c r="J476" t="n">
@@ -28950,7 +28950,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B759040&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DD160&gt;</t>
         </is>
       </c>
       <c r="J477" t="n">
@@ -29010,7 +29010,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B759190&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DD100&gt;</t>
         </is>
       </c>
       <c r="J478" t="n">
@@ -29070,7 +29070,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7591F0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DD0A0&gt;</t>
         </is>
       </c>
       <c r="J479" t="n">
@@ -29130,7 +29130,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B759250&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DD190&gt;</t>
         </is>
       </c>
       <c r="J480" t="n">
@@ -29190,7 +29190,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7592B0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DD1F0&gt;</t>
         </is>
       </c>
       <c r="J481" t="n">
@@ -29250,7 +29250,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B759310&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DD250&gt;</t>
         </is>
       </c>
       <c r="J482" t="n">
@@ -29310,7 +29310,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B759370&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DD2B0&gt;</t>
         </is>
       </c>
       <c r="J483" t="n">
@@ -29370,7 +29370,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B7593D0&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DD310&gt;</t>
         </is>
       </c>
       <c r="J484" t="n">
@@ -29430,7 +29430,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B759430&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DD370&gt;</t>
         </is>
       </c>
       <c r="J485" t="n">
@@ -29490,7 +29490,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>&lt;match.MatchInfo object at 0x000001D35B759490&gt;</t>
+          <t>&lt;match.MatchInfo object at 0x0000024A798DD3D0&gt;</t>
         </is>
       </c>
       <c r="J486" t="n">
@@ -29558,19 +29558,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-26400</v>
+        <v>-24400</v>
       </c>
       <c r="C2" t="n">
-        <v>302400</v>
+        <v>330400</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.56%</t>
+          <t>30.51%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.52%</t>
+          <t>1.54%</t>
         </is>
       </c>
     </row>
@@ -29622,16 +29622,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900</v>
+        <v>-1800</v>
       </c>
       <c r="C2" t="n">
-        <v>11100</v>
+        <v>9600</v>
       </c>
       <c r="D2" t="n">
-        <v>-8900</v>
+        <v>-10500</v>
       </c>
       <c r="E2" t="n">
-        <v>-29500</v>
+        <v>-21700</v>
       </c>
     </row>
     <row r="3">
@@ -29641,13 +29641,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-13600</v>
+        <v>-14700</v>
       </c>
       <c r="C3" t="n">
-        <v>26300</v>
+        <v>27000</v>
       </c>
       <c r="D3" t="n">
-        <v>-27900</v>
+        <v>-25500</v>
       </c>
       <c r="E3" t="n">
         <v>-11200</v>
@@ -29705,16 +29705,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-6100</v>
+        <v>-7400</v>
       </c>
       <c r="C2" t="n">
-        <v>5800</v>
+        <v>700</v>
       </c>
       <c r="D2" t="n">
-        <v>-3700</v>
+        <v>3900</v>
       </c>
       <c r="E2" t="n">
-        <v>-19200</v>
+        <v>-18400</v>
       </c>
       <c r="F2" t="n">
         <v>-2500</v>
@@ -29736,28 +29736,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-9700</v>
+        <v>-11300</v>
       </c>
       <c r="C3" t="n">
-        <v>-7400</v>
+        <v>-7000</v>
       </c>
       <c r="D3" t="n">
-        <v>-18000</v>
+        <v>-17700</v>
       </c>
       <c r="E3" t="n">
-        <v>7200</v>
+        <v>4500</v>
       </c>
       <c r="F3" t="n">
-        <v>4700</v>
+        <v>7100</v>
       </c>
       <c r="G3" t="n">
-        <v>5900</v>
+        <v>9000</v>
       </c>
       <c r="H3" t="n">
-        <v>-6300</v>
+        <v>-5500</v>
       </c>
       <c r="I3" t="n">
-        <v>-2800</v>
+        <v>-3500</v>
       </c>
     </row>
   </sheetData>
